--- a/SemanticsInference_Metrics.xlsx
+++ b/SemanticsInference_Metrics.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28019"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28020"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="94" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F1CB478-57DB-40C5-A794-2708AC6BF1A8}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{586BACFF-7DB9-4746-9BD9-3293AB44B3D7}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -475,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75:H78"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -533,10 +533,10 @@
         <v>0.73333333333333328</v>
       </c>
       <c r="E3" s="2">
-        <v>1</v>
+        <v>0.92307692307692313</v>
       </c>
       <c r="F3" s="2">
-        <v>0.91666666666666663</v>
+        <v>0.92307692307692313</v>
       </c>
       <c r="G3" s="2">
         <v>0.91666666666666663</v>
@@ -559,10 +559,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="2">
-        <v>0.8</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="F4" s="2">
-        <v>0.7857142857142857</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G4" s="2">
         <v>0.7857142857142857</v>
@@ -588,7 +588,7 @@
         <v>0.8</v>
       </c>
       <c r="F5" s="2">
-        <v>0.73333333333333328</v>
+        <v>0.8</v>
       </c>
       <c r="G5" s="2">
         <v>0.73333333333333328</v>
@@ -614,7 +614,7 @@
         <v>0.88888888888888895</v>
       </c>
       <c r="F6" s="2">
-        <v>0.84615384615384615</v>
+        <v>0.88888888888888895</v>
       </c>
       <c r="G6" s="2">
         <v>0.84615384615384615</v>
@@ -656,25 +656,25 @@
         <v>8</v>
       </c>
       <c r="B11" s="2">
-        <v>0.91666666666666663</v>
+        <v>0.77272727272727271</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
       <c r="D11" s="2">
-        <v>0.91666666666666663</v>
+        <v>1</v>
       </c>
       <c r="E11" s="2">
-        <v>1</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="F11" s="2">
-        <v>1</v>
+        <v>0.94117647058823528</v>
       </c>
       <c r="G11" s="2">
-        <v>1</v>
+        <v>0.94117647058823528</v>
       </c>
       <c r="H11" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="E12" s="2">
-        <v>0.91666666666666663</v>
+        <v>0.8</v>
       </c>
       <c r="F12" s="2">
-        <v>0.91666666666666663</v>
+        <v>0.76190476190476186</v>
       </c>
       <c r="G12" s="2">
-        <v>0.91666666666666663</v>
+        <v>0.76190476190476186</v>
       </c>
       <c r="H12" s="2">
-        <v>0.91666666666666663</v>
+        <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -708,25 +708,25 @@
         <v>10</v>
       </c>
       <c r="B13" s="2">
-        <v>0.91666666666666663</v>
+        <v>0.77272727272727271</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
       </c>
       <c r="D13" s="2">
-        <v>0.91666666666666663</v>
+        <v>1</v>
       </c>
       <c r="E13" s="2">
-        <v>0.91666666666666663</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="F13" s="2">
-        <v>0.91666666666666663</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="G13" s="2">
-        <v>0.91666666666666663</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="H13" s="2">
-        <v>0.91666666666666663</v>
+        <v>0.72727272727272729</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -734,25 +734,25 @@
         <v>11</v>
       </c>
       <c r="B14" s="2">
-        <v>0.95652173913043481</v>
+        <v>0.87179487179487181</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
       </c>
       <c r="D14" s="2">
-        <v>0.95652173913043481</v>
+        <v>1</v>
       </c>
       <c r="E14" s="2">
-        <v>0.95652173913043481</v>
+        <v>0.8421052631578948</v>
       </c>
       <c r="F14" s="2">
-        <v>0.95652173913043481</v>
+        <v>0.84210526315789469</v>
       </c>
       <c r="G14" s="2">
-        <v>0.95652173913043481</v>
+        <v>0.84210526315789469</v>
       </c>
       <c r="H14" s="2">
-        <v>0.95652173913043481</v>
+        <v>0.8421052631578948</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -920,7 +920,7 @@
         <v>8</v>
       </c>
       <c r="B27" s="2">
-        <v>0.63636363636363635</v>
+        <v>0.77272727272727271</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -929,16 +929,16 @@
         <v>1</v>
       </c>
       <c r="E27" s="2">
-        <v>1</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="F27" s="2">
-        <v>1</v>
+        <v>0.94117647058823528</v>
       </c>
       <c r="G27" s="2">
-        <v>1</v>
+        <v>0.94117647058823528</v>
       </c>
       <c r="H27" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -955,16 +955,16 @@
         <v>1</v>
       </c>
       <c r="E28" s="2">
-        <v>0.72727272727272729</v>
+        <v>0.8</v>
       </c>
       <c r="F28" s="2">
-        <v>0.68181818181818177</v>
+        <v>0.76190476190476186</v>
       </c>
       <c r="G28" s="2">
-        <v>0.68181818181818177</v>
+        <v>0.76190476190476186</v>
       </c>
       <c r="H28" s="2">
-        <v>0.72727272727272729</v>
+        <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -972,7 +972,7 @@
         <v>10</v>
       </c>
       <c r="B29" s="2">
-        <v>0.63636363636363635</v>
+        <v>0.77272727272727271</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -984,10 +984,10 @@
         <v>0.72727272727272729</v>
       </c>
       <c r="F29" s="2">
-        <v>0.68181818181818177</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="G29" s="2">
-        <v>0.68181818181818177</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="H29" s="2">
         <v>0.72727272727272729</v>
@@ -998,7 +998,7 @@
         <v>11</v>
       </c>
       <c r="B30" s="2">
-        <v>0.77777777777777779</v>
+        <v>0.87179487179487181</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -1010,10 +1010,10 @@
         <v>0.8421052631578948</v>
       </c>
       <c r="F30" s="2">
-        <v>0.81081081081081086</v>
+        <v>0.84210526315789469</v>
       </c>
       <c r="G30" s="2">
-        <v>0.81081081081081086</v>
+        <v>0.84210526315789469</v>
       </c>
       <c r="H30" s="2">
         <v>0.8421052631578948</v>
@@ -1061,16 +1061,16 @@
         <v>0.97560975609756095</v>
       </c>
       <c r="E35" s="2">
-        <v>1</v>
+        <v>0.97297297297297303</v>
       </c>
       <c r="F35" s="2">
-        <v>1</v>
+        <v>0.97297297297297303</v>
       </c>
       <c r="G35" s="2">
-        <v>1</v>
+        <v>0.97297297297297303</v>
       </c>
       <c r="H35" s="2">
-        <v>0.94594594594594594</v>
+        <v>0.94444444444444442</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1087,16 +1087,16 @@
         <v>1</v>
       </c>
       <c r="E36" s="2">
-        <v>0.90243902439024393</v>
+        <v>0.9</v>
       </c>
       <c r="F36" s="2">
-        <v>0.90243902439024393</v>
+        <v>0.9</v>
       </c>
       <c r="G36" s="2">
-        <v>0.90243902439024393</v>
+        <v>0.9</v>
       </c>
       <c r="H36" s="2">
-        <v>0.89743589743589747</v>
+        <v>0.87179487179487181</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1113,16 +1113,16 @@
         <v>0.97560975609756095</v>
       </c>
       <c r="E37" s="2">
-        <v>0.90243902439024393</v>
+        <v>0.87804878048780488</v>
       </c>
       <c r="F37" s="2">
-        <v>0.90243902439024393</v>
+        <v>0.87804878048780488</v>
       </c>
       <c r="G37" s="2">
-        <v>0.90243902439024393</v>
+        <v>0.87804878048780488</v>
       </c>
       <c r="H37" s="2">
-        <v>0.85365853658536583</v>
+        <v>0.82926829268292679</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1139,16 +1139,16 @@
         <v>0.98765432098765427</v>
       </c>
       <c r="E38" s="2">
-        <v>0.94871794871794879</v>
+        <v>0.93506493506493504</v>
       </c>
       <c r="F38" s="2">
-        <v>0.94871794871794879</v>
+        <v>0.93506493506493504</v>
       </c>
       <c r="G38" s="2">
-        <v>0.94871794871794879</v>
+        <v>0.93506493506493504</v>
       </c>
       <c r="H38" s="2">
-        <v>0.92105263157894746</v>
+        <v>0.90666666666666673</v>
       </c>
     </row>
     <row r="41" spans="1:8">
